--- a/log/Seat_202102.xlsx
+++ b/log/Seat_202102.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,13 +577,43 @@
           <t>16:21:15</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>中1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21:56:26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>本科</t>
         </is>

--- a/log/Seat_202102.xlsx
+++ b/log/Seat_202102.xlsx
@@ -8,6 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="02月12日" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="02月13日" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="02月15日" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="02月16日" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="02月19日" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +551,11 @@
           <t>16:21:07</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22:02:19</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
           <t>小5</t>
@@ -607,13 +616,696 @@
           <t>21:56:26</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>小5</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>斎藤</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22:02:09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22:54:15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>中3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>22</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20210212</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22:02:16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210213</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23:06:27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23:07:08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210213</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23:06:38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>芹沢</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16:34:02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210215</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16:34:06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>芹沢</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15:57:46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>小島2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210216</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16:02:05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>16:02:09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12:42:45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>14:24:45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:46:15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:47:30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13:47:37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>14:40:22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14:24:37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>14:33:43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14:33:39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>14:40:19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14:40:16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>本科</t>
         </is>

--- a/log/Seat_202102.xlsx
+++ b/log/Seat_202102.xlsx
@@ -1061,7 +1061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1300,12 +1300,217 @@
           <t>14:40:16</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>18:07:21</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>小5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>小島2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17:19:04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>18:07:23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>小6</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>伊藤</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17:19:25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18:07:25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>中2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18:07:12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>18:07:18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18:07:34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19:10:30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>武藤2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18:07:39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>中1</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19:10:27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>本科</t>
         </is>

--- a/log/Seat_202102.xlsx
+++ b/log/Seat_202102.xlsx
@@ -12,6 +12,7 @@
     <sheet name="02月15日" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="02月16日" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="02月19日" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="02月20日" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1061,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1475,6 +1476,11 @@
           <t>18:07:39</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21:47:12</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>中1</t>
@@ -1505,12 +1511,253 @@
           <t>19:10:27</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21:23:29</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>小3</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>小島</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21:47:09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>小6</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20210219</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21:50:07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>芹沢</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210220</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00:59:40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小4</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>正田</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>18</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210220</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00:59:46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>小5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>小島2</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20210220</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01:26:12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>小6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>伊藤</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20210220</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>01:39:25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>中2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>本科</t>
         </is>

--- a/log/Seat_202102.xlsx
+++ b/log/Seat_202102.xlsx
@@ -13,6 +13,7 @@
     <sheet name="02月16日" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="02月19日" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="02月20日" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="02月21日" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1766,4 +1767,216 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>名前</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>席番号</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>日付</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>入室時間</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>退室時間</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>学年</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>コース</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20210221</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17:44:26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>18:29:13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>伊藤</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20210221</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18:30:44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>中2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>柳井</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20210221</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:30:52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>小3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>本科</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>高山</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>20210221</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:40:28</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>小6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>東進</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>芹沢</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>20210221</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18:41:19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>小4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>特講</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>